--- a/LIstenvergleich.xlsx
+++ b/LIstenvergleich.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phili\OneDrive\Desktop\Audicon Artikel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D330ACB-03CE-41B6-AD8B-8E5C16425586}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29706D82-309B-4B90-BD23-C0CBC3BCB40F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{436BD927-A443-4734-9301-0CE8ABE238A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Listenvergleich - Stichwörter" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Listenvergleich - Stichwörter'!$A$2:$D$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="97">
   <si>
     <t>Papier Philipp</t>
   </si>
@@ -322,13 +325,16 @@
   </si>
   <si>
     <t>File Sharing (Sharepoint)</t>
+  </si>
+  <si>
+    <t>Hinzufügen:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,8 +366,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -380,6 +392,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -476,7 +494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -502,15 +520,23 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -518,9 +544,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -837,10 +860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A23D1D4C-2105-4D7C-AE8A-F3B7FB64A867}">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -849,9 +872,10 @@
     <col min="2" max="2" width="41.28515625" style="5" customWidth="1"/>
     <col min="3" max="3" width="34.7109375" style="5" customWidth="1"/>
     <col min="4" max="4" width="32.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -860,8 +884,11 @@
         <v>1</v>
       </c>
       <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -870,9 +897,12 @@
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="F2" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -881,34 +911,43 @@
       <c r="C3" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="13" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
+      <c r="F3" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="10"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+      <c r="D4" s="15"/>
+      <c r="F4" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="13" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="F5" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -917,20 +956,26 @@
       <c r="C6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="11"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
+      <c r="D6" s="14"/>
+      <c r="F6" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
+      <c r="D7" s="15"/>
+      <c r="F7" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -940,9 +985,12 @@
       <c r="D8" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="F8" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -954,9 +1002,12 @@
       <c r="D9" s="6" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
+      <c r="F9" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
       <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
@@ -964,9 +1015,12 @@
       <c r="D10" s="6" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="F10" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -975,42 +1029,45 @@
       <c r="C11" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="13" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
+      <c r="F11" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
       <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="11"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
+      <c r="D12" s="14"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
       <c r="B13" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="11"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
+      <c r="D13" s="14"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
       <c r="B14" s="4" t="s">
         <v>95</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="11"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="D14" s="14"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1019,32 +1076,32 @@
       <c r="C15" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="10"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
+      <c r="D15" s="15"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
       <c r="B16" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="13" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="11"/>
+      <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -1053,32 +1110,32 @@
       <c r="C18" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="10"/>
+      <c r="D18" s="15"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="13" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="11"/>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="13" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -1087,20 +1144,20 @@
       <c r="C21" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="11"/>
+      <c r="D21" s="14"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
+      <c r="A22" s="14"/>
       <c r="B22" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="10"/>
+      <c r="D22" s="15"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
+      <c r="A23" s="14"/>
       <c r="B23" s="4" t="s">
         <v>25</v>
       </c>
@@ -1110,14 +1167,14 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
+      <c r="A24" s="15"/>
       <c r="B24" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="13" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1129,34 +1186,34 @@
       <c r="C25" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="11"/>
+      <c r="D25" s="14"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="13" t="s">
         <v>28</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D26" s="10"/>
+      <c r="D26" s="15"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="13" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="13" t="s">
         <v>31</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -1165,10 +1222,10 @@
       <c r="C28" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="10"/>
+      <c r="D28" s="15"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
+      <c r="A29" s="14"/>
       <c r="B29" s="4" t="s">
         <v>36</v>
       </c>
@@ -1180,7 +1237,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
+      <c r="A30" s="15"/>
       <c r="B30" s="4" t="s">
         <v>37</v>
       </c>
@@ -1192,7 +1249,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -1201,49 +1258,49 @@
       <c r="C31" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="13" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D32" s="11"/>
+      <c r="D32" s="14"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
+      <c r="A33" s="14"/>
       <c r="B33" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D33" s="11"/>
+      <c r="D33" s="14"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
+      <c r="A34" s="14"/>
       <c r="B34" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="11"/>
+      <c r="D34" s="14"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
+      <c r="A35" s="15"/>
       <c r="B35" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D35" s="10"/>
+      <c r="D35" s="15"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
@@ -1256,7 +1313,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B37" s="4" t="s">
@@ -1265,42 +1322,42 @@
       <c r="C37" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="13" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
+      <c r="A38" s="17"/>
       <c r="B38" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D38" s="11"/>
+      <c r="D38" s="14"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
+      <c r="A39" s="17"/>
       <c r="B39" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D39" s="11"/>
+      <c r="D39" s="14"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
+      <c r="A40" s="18"/>
       <c r="B40" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="10"/>
+      <c r="D40" s="15"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="13" t="s">
         <v>50</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -1310,7 +1367,7 @@
       <c r="D41" s="4"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
+      <c r="A42" s="14"/>
       <c r="B42" s="4" t="s">
         <v>53</v>
       </c>
@@ -1318,7 +1375,7 @@
       <c r="D42" s="4"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
+      <c r="A43" s="15"/>
       <c r="B43" s="4" t="s">
         <v>54</v>
       </c>
@@ -1410,7 +1467,13 @@
       <c r="D57" s="4"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:D2" xr:uid="{F1D3145F-E463-4E9D-BCA0-1D76C751A3B2}"/>
   <mergeCells count="21">
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="D24:D26"/>
     <mergeCell ref="D31:D35"/>
     <mergeCell ref="D37:D40"/>
     <mergeCell ref="A41:A43"/>
@@ -1427,11 +1490,6 @@
     <mergeCell ref="A37:A40"/>
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="D24:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/LIstenvergleich.xlsx
+++ b/LIstenvergleich.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phili\OneDrive\Desktop\Audicon Artikel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29706D82-309B-4B90-BD23-C0CBC3BCB40F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1539C7-ECE2-4DB0-8727-E2EDBE50C2E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{436BD927-A443-4734-9301-0CE8ABE238A4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{436BD927-A443-4734-9301-0CE8ABE238A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Listenvergleich - Stichwörter" sheetId="1" r:id="rId1"/>
+    <sheet name="Datenanalyse Prozess" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Listenvergleich - Stichwörter'!$A$2:$D$2</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="123">
   <si>
     <t>Papier Philipp</t>
   </si>
@@ -328,6 +329,84 @@
   </si>
   <si>
     <t>Hinzufügen:</t>
+  </si>
+  <si>
+    <t>Arbeitsschritt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einsatzgebiet in der Prüfung </t>
+  </si>
+  <si>
+    <t>Fragestellung / Problem</t>
+  </si>
+  <si>
+    <t>Übersetzung der Fragestellung in ein Datenproblem</t>
+  </si>
+  <si>
+    <t>Datenanalyse</t>
+  </si>
+  <si>
+    <t>Interpretation</t>
+  </si>
+  <si>
+    <t>Kommunikation der Ergebnisse</t>
+  </si>
+  <si>
+    <t>Werttreiber</t>
+  </si>
+  <si>
+    <t>Mindesterfordernisse</t>
+  </si>
+  <si>
+    <t>Datenentdeckung</t>
+  </si>
+  <si>
+    <t>Wiederholung (Repeat)</t>
+  </si>
+  <si>
+    <t>Zeitersparniss</t>
+  </si>
+  <si>
+    <t>Erfolgreich durchgeführte Analysen</t>
+  </si>
+  <si>
+    <t>Fehler werden wiederholt</t>
+  </si>
+  <si>
+    <t>Typische Stolpersteine</t>
+  </si>
+  <si>
+    <t>Visualisierungsoftware</t>
+  </si>
+  <si>
+    <t>Fehlinterpretationen</t>
+  </si>
+  <si>
+    <t>Script Repository</t>
+  </si>
+  <si>
+    <t>Verständniss der Daten und Software</t>
+  </si>
+  <si>
+    <t>fehlerhafte Analysen</t>
+  </si>
+  <si>
+    <t>mangelhaftes Verständniss von Prozessen</t>
+  </si>
+  <si>
+    <t>vergleichbare Analysen und Ergebnisse</t>
+  </si>
+  <si>
+    <t>Klare Ergebnisse und Verständniss der Prozesse</t>
+  </si>
+  <si>
+    <t>Keine Abstimmung mit den Staktholdern</t>
+  </si>
+  <si>
+    <t>Klare Definition des Prüfungsscope</t>
+  </si>
+  <si>
+    <t>Klare Definition der Erwartungen</t>
   </si>
 </sst>
 </file>
@@ -373,7 +452,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -395,6 +474,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,7 +585,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -546,6 +637,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -862,7 +956,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A23D1D4C-2105-4D7C-AE8A-F3B7FB64A867}">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -1469,11 +1563,6 @@
   </sheetData>
   <autoFilter ref="A2:D2" xr:uid="{F1D3145F-E463-4E9D-BCA0-1D76C751A3B2}"/>
   <mergeCells count="21">
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="D24:D26"/>
     <mergeCell ref="D31:D35"/>
     <mergeCell ref="D37:D40"/>
     <mergeCell ref="A41:A43"/>
@@ -1490,8 +1579,142 @@
     <mergeCell ref="A37:A40"/>
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="D24:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C5D227-83C1-4517-9AEF-400947F6FE3F}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43.7109375" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" customWidth="1"/>
+    <col min="3" max="3" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/LIstenvergleich.xlsx
+++ b/LIstenvergleich.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phili\OneDrive\Desktop\Audicon Artikel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1539C7-ECE2-4DB0-8727-E2EDBE50C2E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E2BBDC-8122-4496-A243-F317099D0D20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{436BD927-A443-4734-9301-0CE8ABE238A4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{436BD927-A443-4734-9301-0CE8ABE238A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Listenvergleich - Stichwörter" sheetId="1" r:id="rId1"/>
     <sheet name="Datenanalyse Prozess" sheetId="2" r:id="rId2"/>
+    <sheet name="Studie DIIR Stichwörter" sheetId="3" r:id="rId3"/>
+    <sheet name="Checkliste" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Listenvergleich - Stichwörter'!$A$2:$D$2</definedName>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="191">
   <si>
     <t>Papier Philipp</t>
   </si>
@@ -407,13 +409,217 @@
   </si>
   <si>
     <t>Klare Definition der Erwartungen</t>
+  </si>
+  <si>
+    <t>Vorteile</t>
+  </si>
+  <si>
+    <t>Nachteile</t>
+  </si>
+  <si>
+    <t>Sonstiges</t>
+  </si>
+  <si>
+    <t>Remote Audits Max 50%</t>
+  </si>
+  <si>
+    <t>Operations-, Finanz-und IT-Audits remote praktikabel</t>
+  </si>
+  <si>
+    <t>Fraud Prüfung und Beratung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vorraussetzungen: sichere Kommunikationsprogramme mit einer stabilen Internetverbindung und der Möglichkeit,ne-ben einer Videoübertragung auch Daten zu teilen. DerZugang zu Daten, die Bereit-schaft der beteiligten Einheiten sowie eine digitale Form von zu prüfenden Prozessen, Vorgängen und Dokumenten stellen weitere Voraussetzungen dar </t>
+  </si>
+  <si>
+    <t>Effizienz-steigerungen bzw. Zeit-und Kostenersparnissen. Zudem können Remote-Audits die Flexibilität erhöhen und ein Impulsgeber für die Digitalisierung sein. In der aktuellen Situation wird durch Remote-Auditing die Handlungsfähigkeit der Internen Revision gestärkt.</t>
+  </si>
+  <si>
+    <t>potenziellen Redu-zierung der Assurance. Die Teilnehmer sind der Meinung, dass die Analyse von Kör-persprache bzw.Gesichtsausdruck, der Vollständigkeit/Korrektheit vonDokumentenund des Arbeitsumfeldsteilweise eingeschränkt ist. Der Zugang zu Personen und Da-ten, eine mangelnde informelle Kommunikation sowie die Bildung von Vertrauen stel-len weitere Herausforderungendar. Bei größeren Unternehmen könnenunterschiedli-che Zeitzonen problematisch sein.</t>
+  </si>
+  <si>
+    <t>Sichere und stabile Kommunikationsprogramme</t>
+  </si>
+  <si>
+    <t>Abfrage und Teilung von großen Datenmengen</t>
+  </si>
+  <si>
+    <t>Zu prüfende Prozesse, Vorgänge und Dokumente müssen für Remote-Auditingdigital verfügbar sein</t>
+  </si>
+  <si>
+    <t>Eine Standardisierung von Fragebögen und Pro-zessen kann bei der Durchführung von Remote-Audits helfen.Programme zur Daten-analyse werden häufig als technische Voraussetzungen für Remote-Audits genannt.</t>
+  </si>
+  <si>
+    <t>Sichere und stabile Internetverbindung (Office / Home Office)</t>
+  </si>
+  <si>
+    <t>Sparen von Reisezeiten, Reise- und Hotelkosten</t>
+  </si>
+  <si>
+    <t>Erhöhung der Flexibilität &amp; Verbesserung der Prozesse</t>
+  </si>
+  <si>
+    <t>Impulsgeber für Digitalisierung &amp; Aktzeptanz von digitalen Prüfungsformen und Datenanalyse nimmt zu</t>
+  </si>
+  <si>
+    <t>Verbesserung der Work Life Balance</t>
+  </si>
+  <si>
+    <t>Handlungsfähigkeit trotz Covidkrise</t>
+  </si>
+  <si>
+    <t>Körpersprache und Gesichtsausdruck können selbst durch Videotelefonie nicht adä-quat analysiert werden. Die informelle Kommunikation zwischen Revisor und geprüfter Einheit sowie zwischen Mitarbeitern auf unterschiedlichen Hierarchieebenen ist eingeschränkt.</t>
+  </si>
+  <si>
+    <t>Walkthroughs sind nicht möglich (über die Schulter schauen)</t>
+  </si>
+  <si>
+    <t>Schwierigkeit bei einer Prüfung die Vollständigkeit und Korrektheit von Informationen zu Verifizieren.</t>
+  </si>
+  <si>
+    <t>Eingeschränkter bzw. fehlender Zugang zu Personen und Daten (Beispiel: Zeitzonen) verlängert den Prüfungszeitraum.</t>
+  </si>
+  <si>
+    <t>Vertrauen zwischen Revisor und geprüfter Einheit zu bilden und das Netzwerk auf-rechtzuerhalten sind weitere Herausforderungen.</t>
+  </si>
+  <si>
+    <t>Kommunikation geklärt?</t>
+  </si>
+  <si>
+    <t>Datenaustausch möglich?</t>
+  </si>
+  <si>
+    <t>Internetverbindung auf beiden Seiten ausreichend?</t>
+  </si>
+  <si>
+    <t>Nötiges Hardware &amp; Know-How vorhanden?</t>
+  </si>
+  <si>
+    <t>Wurden alle Parteien informiert?</t>
+  </si>
+  <si>
+    <t>Sind alle Interessen berücksichtigt?</t>
+  </si>
+  <si>
+    <t>Wurde die Prüfung zeitnah angekündigt?</t>
+  </si>
+  <si>
+    <t>Datenanforderung erstellt?</t>
+  </si>
+  <si>
+    <t>Benötigte Prozesse werden abgebildet?</t>
+  </si>
+  <si>
+    <t>Direkter Zugang der Prüfer?</t>
+  </si>
+  <si>
+    <t>Wurden alle Daten extrahiert?</t>
+  </si>
+  <si>
+    <t>Sind alle Daten in benutzbarer Form vorhanden?</t>
+  </si>
+  <si>
+    <t>Ist die integrität der Daten sicher gestellt?</t>
+  </si>
+  <si>
+    <t>Sind Aufgaben im Team klar verteilt?</t>
+  </si>
+  <si>
+    <t>Sind alle Daten entsprechenden Tests zugeordnet?</t>
+  </si>
+  <si>
+    <t>Welche Prüfschritte benötigen Stichproben?</t>
+  </si>
+  <si>
+    <t>Wurden Arbeitspackete an den Auditee versandt?</t>
+  </si>
+  <si>
+    <t>Wurden interne (Kompetenz) Fragen geklärt?</t>
+  </si>
+  <si>
+    <t>Konnte die Methodologie erklärt werden?</t>
+  </si>
+  <si>
+    <t>Sind Ansprechpartner bekannt?</t>
+  </si>
+  <si>
+    <t>Sind alle Ansprechpartner verfügbar?</t>
+  </si>
+  <si>
+    <t>Sind alle Termine geplant?</t>
+  </si>
+  <si>
+    <t>Ist die geplante Zeit (Termin) ausreichend?</t>
+  </si>
+  <si>
+    <t>Wurde der gesamt Prozess durchgesprochen?</t>
+  </si>
+  <si>
+    <t>Sind alle Kontrollen überprüft wurden?</t>
+  </si>
+  <si>
+    <t>Sind die größten Risiken abgedeckt?</t>
+  </si>
+  <si>
+    <t>Validierung der Ergebnisse</t>
+  </si>
+  <si>
+    <t>Wurde ausreichende Dokumentation erstellt?</t>
+  </si>
+  <si>
+    <t>Wurden alle Stichproben durchgesehen?</t>
+  </si>
+  <si>
+    <t>Sind alle Unklarheiten ausgeräumt?</t>
+  </si>
+  <si>
+    <t>Welche Stichproben / Tests liefern Feststellungen?</t>
+  </si>
+  <si>
+    <t>Sind alle Zahlen für den Bericht belastbar?</t>
+  </si>
+  <si>
+    <t>Wurden die vorläufigen Ergebnisse kommuniziert?</t>
+  </si>
+  <si>
+    <t>Sind die geprüften Prozesse beschrieben?</t>
+  </si>
+  <si>
+    <t>Wurden alle Feststellungen quantifiziert?</t>
+  </si>
+  <si>
+    <t>Sind die Ursachen der Feststellungen klar beschrieben?</t>
+  </si>
+  <si>
+    <t>Wurden die Ergebnisse mit dem Auditee validiert?</t>
+  </si>
+  <si>
+    <t>Existiert für jede Feststellung eine Maßnahme?</t>
+  </si>
+  <si>
+    <t>Sind eingeführte Kontrollen den Risiken angemessen?</t>
+  </si>
+  <si>
+    <t>Wurde der Mehrwert kommuniziert und verstanden?</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>Sind alle betroffenen Stakeholder bekannt?</t>
+  </si>
+  <si>
+    <t>Ist der Scope der Prüfung klar?</t>
+  </si>
+  <si>
+    <t>Wurden alle relevanten Risiken identifiziert?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -447,6 +653,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -490,7 +703,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -581,11 +794,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -619,6 +858,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -637,9 +891,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -655,6 +913,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>141516</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>70757</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1001558</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>115275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Grafik 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AF9E44E-E3F1-4E19-9B14-F3C903C3258C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="141516" y="8071757"/>
+          <a:ext cx="4147528" cy="2140018"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1268186</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>93182</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>118133</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Grafik 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A454C3DA-AFD7-42D2-A396-BC95DB2BC00F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4555672" y="8224157"/>
+          <a:ext cx="5666667" cy="1990476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -956,8 +1307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A23D1D4C-2105-4D7C-AE8A-F3B7FB64A867}">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B43" sqref="B26:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -996,7 +1347,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="20" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1005,7 +1356,7 @@
       <c r="C3" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="20" t="s">
         <v>64</v>
       </c>
       <c r="F3" s="12" t="s">
@@ -1013,27 +1364,27 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="15"/>
+      <c r="D4" s="22"/>
       <c r="F4" s="12" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="20" t="s">
         <v>63</v>
       </c>
       <c r="F5" s="12" t="s">
@@ -1041,7 +1392,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="20" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1050,26 +1401,26 @@
       <c r="C6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="14"/>
+      <c r="D6" s="21"/>
       <c r="F6" s="12" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="15"/>
+      <c r="D7" s="22"/>
       <c r="F7" s="12" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -1084,7 +1435,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="20" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1101,7 +1452,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
@@ -1114,7 +1465,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -1123,7 +1474,7 @@
       <c r="C11" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="20" t="s">
         <v>65</v>
       </c>
       <c r="F11" s="12" t="s">
@@ -1131,37 +1482,37 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="14"/>
+      <c r="D12" s="21"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="14"/>
+      <c r="D13" s="21"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="4" t="s">
         <v>95</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="14"/>
+      <c r="D14" s="21"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="20" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1170,32 +1521,32 @@
       <c r="C15" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="15"/>
+      <c r="D15" s="22"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="20" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="14"/>
+      <c r="D17" s="21"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="20" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -1204,32 +1555,32 @@
       <c r="C18" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="15"/>
+      <c r="D18" s="22"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="20" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="14"/>
+      <c r="D20" s="21"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="20" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -1238,20 +1589,20 @@
       <c r="C21" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="14"/>
+      <c r="D21" s="21"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
+      <c r="A22" s="21"/>
       <c r="B22" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="15"/>
+      <c r="D22" s="22"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
+      <c r="A23" s="21"/>
       <c r="B23" s="4" t="s">
         <v>25</v>
       </c>
@@ -1261,14 +1612,14 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="20" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1280,10 +1631,10 @@
       <c r="C25" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="14"/>
+      <c r="D25" s="21"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="20" t="s">
         <v>28</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -1292,22 +1643,22 @@
       <c r="C26" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D26" s="15"/>
+      <c r="D26" s="22"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="20" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="20" t="s">
         <v>31</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -1316,10 +1667,10 @@
       <c r="C28" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="15"/>
+      <c r="D28" s="22"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
+      <c r="A29" s="21"/>
       <c r="B29" s="4" t="s">
         <v>36</v>
       </c>
@@ -1331,7 +1682,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="4" t="s">
         <v>37</v>
       </c>
@@ -1343,7 +1694,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="20" t="s">
         <v>38</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -1352,49 +1703,49 @@
       <c r="C31" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="20" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
+      <c r="A32" s="21"/>
       <c r="B32" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D32" s="14"/>
+      <c r="D32" s="21"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
+      <c r="A33" s="21"/>
       <c r="B33" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D33" s="14"/>
+      <c r="D33" s="21"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
+      <c r="A34" s="21"/>
       <c r="B34" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="14"/>
+      <c r="D34" s="21"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
+      <c r="A35" s="22"/>
       <c r="B35" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D35" s="15"/>
+      <c r="D35" s="22"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
@@ -1407,7 +1758,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="23" t="s">
         <v>51</v>
       </c>
       <c r="B37" s="4" t="s">
@@ -1416,42 +1767,42 @@
       <c r="C37" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="20" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
+      <c r="A38" s="24"/>
       <c r="B38" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D38" s="14"/>
+      <c r="D38" s="21"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
+      <c r="A39" s="24"/>
       <c r="B39" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D39" s="14"/>
+      <c r="D39" s="21"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="18"/>
+      <c r="A40" s="25"/>
       <c r="B40" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="15"/>
+      <c r="D40" s="22"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="20" t="s">
         <v>50</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -1461,7 +1812,7 @@
       <c r="D41" s="4"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
+      <c r="A42" s="21"/>
       <c r="B42" s="4" t="s">
         <v>53</v>
       </c>
@@ -1469,7 +1820,7 @@
       <c r="D42" s="4"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
+      <c r="A43" s="22"/>
       <c r="B43" s="4" t="s">
         <v>54</v>
       </c>
@@ -1594,8 +1945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C5D227-83C1-4517-9AEF-400947F6FE3F}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1607,16 +1958,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="13" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1638,20 +1989,20 @@
       <c r="A3" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="14" t="s">
         <v>106</v>
       </c>
       <c r="B5" s="11" t="s">
@@ -1696,12 +2047,12 @@
       <c r="A8" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="14" t="s">
         <v>107</v>
       </c>
       <c r="B9" s="11" t="s">
@@ -1717,4 +2068,685 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7314DFA0-100E-4605-911A-5CEEDEAF9BE1}">
+  <dimension ref="A1:C29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.42578125" customWidth="1"/>
+    <col min="3" max="3" width="57.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="16"/>
+    </row>
+    <row r="4" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="11"/>
+    </row>
+    <row r="10" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" s="11"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB30D8A-77F9-4A25-B00B-87F91AD50027}">
+  <dimension ref="A1:G45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="54.5703125" style="5" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="E2" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="21"/>
+      <c r="B3" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="E3" s="22"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="E4" s="21"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="21"/>
+      <c r="B5" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="E5" s="22"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="E6" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="22"/>
+      <c r="B7" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="E7" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="E8" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="24"/>
+      <c r="B9" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="E9" s="21"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="24"/>
+      <c r="B10" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="E10" s="21"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="25"/>
+      <c r="B11" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="E11" s="21"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="E12" s="22"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="21"/>
+      <c r="B13" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="E13" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
+      <c r="B14" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="E14" s="21"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="E15" s="22"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="21"/>
+      <c r="B16" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="E16" s="20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
+      <c r="B17" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="E17" s="21"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="E18" s="21"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="21"/>
+      <c r="B19" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="E19" s="22"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="21"/>
+      <c r="B20" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="E20" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="21"/>
+      <c r="B21" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="E21" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+      <c r="B22" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="E22" s="21"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="27"/>
+      <c r="C23" s="28"/>
+      <c r="E23" s="21"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="E24" s="22"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="22"/>
+      <c r="B25" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="E25" s="20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="E26" s="22"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="21"/>
+      <c r="B27" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="E27" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="22"/>
+      <c r="B28" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="E28" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="E29" s="20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="21"/>
+      <c r="B30" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="E30" s="21"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="21"/>
+      <c r="B31" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="E31" s="21"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="21"/>
+      <c r="B32" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="E32" s="21"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="E33" s="19"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="21"/>
+      <c r="B34" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="E34" s="19"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="21"/>
+      <c r="B35" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="E35" s="19"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="21"/>
+      <c r="B36" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="E36" s="19"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="22"/>
+      <c r="B37" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C37" s="11"/>
+      <c r="E37" s="19"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="27"/>
+      <c r="C38" s="28"/>
+      <c r="E38" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C39" s="11"/>
+      <c r="E39" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="24"/>
+      <c r="B40" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C40" s="11"/>
+      <c r="E40" s="21"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="24"/>
+      <c r="B41" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="C41" s="11"/>
+      <c r="E41" s="21"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="25"/>
+      <c r="B42" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C42" s="11"/>
+      <c r="E42" s="22"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="C43" s="11"/>
+      <c r="E43" s="4"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="21"/>
+      <c r="B44" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="C44" s="11"/>
+      <c r="E44" s="4"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="22"/>
+      <c r="B45" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C45" s="11"/>
+      <c r="E45" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="E39:E42"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="E16:E19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>